--- a/xlsx/现象_intext.xlsx
+++ b/xlsx/现象_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>事實</t>
+    <t>事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E7%89%A9</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%AB%94</t>
   </si>
   <si>
-    <t>本體</t>
+    <t>本体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%B4%A8</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E7%B2%B9%E7%90%86%E6%80%A7%E6%89%B9%E5%88%A4</t>
   </si>
   <si>
-    <t>純粹理性批判</t>
+    <t>纯粹理性批判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%87%AA%E8%BA%AB</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A0%BC%E5%B0%94</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%E5%BE%B7%C2%B7%E8%83%A1%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>埃德蒙德·胡塞爾</t>
+    <t>埃德蒙德·胡塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E6%B5%B7%E5%BE%B7%E6%A0%BC%E5%B0%94</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9C%87</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB</t>
   </si>
   <si>
-    <t>閃電</t>
+    <t>闪电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%B8%B8%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>超常現象</t>
+    <t>超常现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>超心理學</t>
+    <t>超心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AD%B8%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>光學現象</t>
+    <t>光学现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AD%B8</t>
   </si>
   <si>
-    <t>光學</t>
+    <t>光学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計學</t>
+    <t>统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C</t>
@@ -263,25 +263,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A6%E9%87%8F%E8%A1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>度量衡學</t>
+    <t>度量衡学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E6%B8%AC</t>
   </si>
   <si>
-    <t>觀測</t>
+    <t>观测</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5</t>
   </si>
   <si>
-    <t>認知</t>
+    <t>认知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
